--- a/StructureDefinition-kommunikasjonspart-Organization.xlsx
+++ b/StructureDefinition-kommunikasjonspart-Organization.xlsx
@@ -1183,14 +1183,15 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Endpoint)
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>There is a change in cardinality from NO draft profile</t>
-  </si>
-  <si>
-    <t>There is a change in cardinality from NO draft profile. As there is not a need to have endpoint to communicate.</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.
+no-basis don't use this element to reference endpoints registered in the Norwegian Address register (endpoints connected to a kommunikasjonspart in tjenestebasert adressering). Endpoints registered in the Norwegian Address register should only be referenced through a kommunikasjonspart-Organization resource.</t>
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
@@ -10283,7 +10284,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-kommunikasjonspart-Organization.xlsx
+++ b/StructureDefinition-kommunikasjonspart-Organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-kommunikasjonspart-Organization.xlsx
+++ b/StructureDefinition-kommunikasjonspart-Organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">kommunikasjonspart
@@ -262,7 +274,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+  </si>
+  <si>
+    <t>(also see master files messages)</t>
+  </si>
+  <si>
+    <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -306,167 +324,164 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:organizationcoverage</t>
+  </si>
+  <si>
+    <t>organizationcoverage</t>
+  </si>
+  <si>
+    <t>dekningsområde
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/tba-organizationcoverage}
+</t>
+  </si>
+  <si>
+    <t>The coverage of a service hosted by one of the organizations. Specifically used by norwegian Municipalities</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
+    <t>Organization.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:organizationcoverage</t>
-  </si>
-  <si>
-    <t>organizationcoverage</t>
-  </si>
-  <si>
-    <t>dekningsområde
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/tba-organizationcoverage}
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>The coverage of a service hosted by one of the organizations. Specifically used by norwegian Municipalities</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -474,6 +489,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -500,8 +518,20 @@
 </t>
   </si>
   <si>
-    <t>ele-1
-org-1</t>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
@@ -520,12 +550,21 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -554,6 +593,9 @@
   </si>
   <si>
     <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
   </si>
   <si>
     <t>Organization.identifier.type</t>
@@ -587,6 +629,9 @@
     <t>Identifier.type</t>
   </si>
   <si>
+    <t>CX.5</t>
+  </si>
+  <si>
     <t>Organization.identifier.system</t>
   </si>
   <si>
@@ -608,6 +653,15 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
@@ -624,6 +678,15 @@
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -639,15 +702,16 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Organization.identifier.assigner</t>
@@ -669,8 +733,13 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Organization.identifier:ENH</t>
@@ -815,6 +884,18 @@
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -854,6 +935,15 @@
 </t>
   </si>
   <si>
+    <t>No equivalent in v2</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva</t>
   </si>
   <si>
@@ -906,6 +996,12 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.coding.id</t>
   </si>
   <si>
@@ -939,6 +1035,12 @@
     <t>Coding.system</t>
   </si>
   <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.coding.version</t>
   </si>
   <si>
@@ -957,6 +1059,12 @@
     <t>Coding.version</t>
   </si>
   <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.coding.code</t>
   </si>
   <si>
@@ -969,15 +1077,18 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
   </si>
   <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.coding.display</t>
   </si>
   <si>
@@ -996,6 +1107,12 @@
     <t>Coding.display</t>
   </si>
   <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.coding.userSelected</t>
   </si>
   <si>
@@ -1017,6 +1134,12 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskNiva.text</t>
   </si>
   <si>
@@ -1038,6 +1161,12 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Organization.type:organisatoriskBetegnelse</t>
   </si>
   <si>
@@ -1096,6 +1225,15 @@
   </si>
   <si>
     <t>Need to use the name as the label of the organization.</t>
+  </si>
+  <si>
+    <t>XON.1</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>.PreferredName/Name</t>
   </si>
   <si>
     <t>Organization.alias</t>
@@ -1133,12 +1271,21 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t>ele-1
-org-3</t>
+    <t xml:space="preserve">org-3
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>ORC-22?</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -1148,26 +1295,35 @@
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t>ele-1
-org-2</t>
+    <t xml:space="preserve">org-2
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
+  </si>
+  <si>
     <t>Organization.partOf</t>
   </si>
   <si>
@@ -1181,10 +1337,10 @@
     <t>The organization of which this organization forms a part.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
   </si>
   <si>
     <t>Organization.contact</t>
@@ -1206,6 +1362,9 @@
     <t>Need to keep track of assigned contact points within bigger organization.</t>
   </si>
   <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
     <t>Organization.contact.id</t>
   </si>
   <si>
@@ -1238,9 +1397,6 @@
     <t>Indicates a purpose for which the contact can be reached.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
@@ -1248,6 +1404,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
   </si>
   <si>
     <t>Organization.contact.name</t>
@@ -1263,12 +1422,15 @@
     <t>A name associated with the contact.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
     <t>Organization.contact.telecom</t>
   </si>
   <si>
@@ -1281,14 +1443,28 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
   </si>
   <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1610,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ87"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1654,6 +1830,10 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="43.93359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1765,6 +1945,18 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1775,14 +1967,14 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -1794,16 +1986,16 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1856,24 +2048,36 @@
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1881,10 +2085,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1893,19 +2097,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1955,27 +2159,39 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN3" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1983,10 +2199,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1995,16 +2211,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2055,27 +2271,39 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2083,31 +2311,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2157,27 +2385,39 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2185,10 +2425,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2200,16 +2440,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2235,13 +2475,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -2259,38 +2499,50 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2302,16 +2554,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2361,38 +2613,50 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2404,16 +2668,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2463,38 +2727,50 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2506,17 +2782,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2553,52 +2827,62 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2610,13 +2894,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2667,62 +2951,74 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2759,39 +3055,51 @@
         <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>135</v>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2799,10 +3107,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2811,20 +3119,20 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2861,37 +3169,49 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2899,10 +3219,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2914,13 +3234,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2971,38 +3291,50 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3014,16 +3346,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3061,39 +3393,51 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3101,34 +3445,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3153,13 +3497,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3177,27 +3521,39 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3205,10 +3561,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3217,22 +3573,22 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3257,13 +3613,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3281,27 +3637,39 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3309,10 +3677,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3321,22 +3689,22 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3349,7 +3717,7 @@
         <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>20</v>
@@ -3385,27 +3753,39 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3413,10 +3793,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3425,19 +3805,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3451,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3487,27 +3867,39 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3515,10 +3907,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3527,20 +3919,18 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3589,27 +3979,39 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3617,10 +4019,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3629,19 +4031,19 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3691,40 +4093,52 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3733,20 +4147,20 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3795,27 +4209,39 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3823,10 +4249,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3838,13 +4264,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3895,38 +4321,50 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3938,16 +4376,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3985,39 +4423,51 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4025,34 +4475,34 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4077,13 +4527,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4101,27 +4551,39 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4129,10 +4591,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4141,22 +4603,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4181,13 +4643,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4205,27 +4667,39 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4233,10 +4707,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4245,35 +4719,35 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>20</v>
@@ -4309,27 +4783,39 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4337,10 +4823,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4349,19 +4835,19 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4375,7 +4861,7 @@
         <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>20</v>
@@ -4411,27 +4897,39 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4439,10 +4937,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4451,20 +4949,18 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4513,27 +5009,39 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4541,10 +5049,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4553,19 +5061,19 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4615,40 +5123,52 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4657,20 +5177,20 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4719,27 +5239,39 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4747,10 +5279,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4762,13 +5294,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4819,38 +5351,50 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4862,16 +5406,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4909,39 +5453,51 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4949,34 +5505,34 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5001,13 +5557,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5025,27 +5581,39 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5053,10 +5621,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5065,22 +5633,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5105,13 +5673,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5129,27 +5697,39 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5157,10 +5737,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5169,35 +5749,35 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>20</v>
@@ -5233,27 +5813,39 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5261,10 +5853,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5273,19 +5865,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5299,7 +5891,7 @@
         <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>20</v>
@@ -5335,27 +5927,39 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5363,10 +5967,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5375,20 +5979,18 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5437,27 +6039,39 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5465,10 +6079,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5477,19 +6091,19 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5539,40 +6153,52 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5581,20 +6207,20 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5643,27 +6269,39 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5671,10 +6309,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5686,13 +6324,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5743,38 +6381,50 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5786,16 +6436,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5833,39 +6483,51 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5873,34 +6535,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -5925,13 +6587,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -5949,27 +6611,39 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5977,10 +6651,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -5989,22 +6663,22 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6029,13 +6703,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6053,27 +6727,39 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6081,10 +6767,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6093,35 +6779,35 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>20</v>
@@ -6157,27 +6843,39 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6185,10 +6883,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6197,19 +6895,19 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6223,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>20</v>
@@ -6259,27 +6957,39 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6287,10 +6997,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6299,20 +7009,18 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6361,27 +7069,39 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6389,10 +7109,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6401,19 +7121,19 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6463,27 +7183,39 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6491,40 +7223,40 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>20</v>
@@ -6569,38 +7301,50 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>282</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6609,22 +7353,22 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -6649,62 +7393,74 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6713,22 +7469,22 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -6753,11 +7509,11 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -6775,27 +7531,39 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6803,10 +7571,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -6818,13 +7586,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6875,38 +7643,50 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -6918,16 +7698,16 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6965,39 +7745,51 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7005,10 +7797,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7017,22 +7809,22 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7081,27 +7873,39 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7109,10 +7913,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7124,13 +7928,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7181,38 +7985,50 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7224,16 +8040,16 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7271,39 +8087,51 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7311,10 +8139,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -7323,29 +8151,29 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>20</v>
@@ -7387,27 +8215,39 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7415,10 +8255,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -7427,19 +8267,19 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7489,27 +8329,39 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7517,10 +8369,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -7529,22 +8381,20 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -7593,27 +8443,39 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7621,10 +8483,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -7633,22 +8495,20 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -7697,27 +8557,39 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7725,10 +8597,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -7737,22 +8609,22 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -7801,27 +8673,39 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7829,10 +8713,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -7841,22 +8725,22 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -7905,40 +8789,52 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -7947,22 +8843,22 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -7987,11 +8883,11 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -8009,27 +8905,39 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8037,10 +8945,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -8052,13 +8960,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8109,38 +9017,50 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -8152,16 +9072,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8199,39 +9119,51 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8239,10 +9171,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -8251,22 +9183,22 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -8315,27 +9247,39 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8343,10 +9287,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -8358,13 +9302,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8415,38 +9359,50 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -8458,16 +9414,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8505,39 +9461,51 @@
         <v>20</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8545,10 +9513,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -8557,29 +9525,29 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>20</v>
@@ -8621,27 +9589,39 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8649,10 +9629,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -8661,19 +9641,19 @@
         <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8723,27 +9703,39 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8751,10 +9743,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -8763,22 +9755,20 @@
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -8827,27 +9817,39 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8855,10 +9857,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -8867,22 +9869,20 @@
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -8931,27 +9931,39 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8959,10 +9971,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -8971,22 +9983,22 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -9035,27 +10047,39 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9063,10 +10087,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
@@ -9075,22 +10099,22 @@
         <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -9139,27 +10163,39 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9167,10 +10203,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -9179,22 +10215,22 @@
         <v>20</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -9243,27 +10279,39 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9271,10 +10319,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -9286,19 +10334,19 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -9347,27 +10395,39 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9375,10 +10435,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -9390,19 +10450,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -9451,27 +10511,39 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>358</v>
+        <v>405</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9479,10 +10551,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>20</v>
@@ -9494,19 +10566,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -9555,27 +10627,39 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>366</v>
+        <v>416</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9583,10 +10667,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>20</v>
@@ -9595,22 +10679,20 @@
         <v>20</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -9659,27 +10741,39 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9687,10 +10781,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>20</v>
@@ -9702,19 +10796,19 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -9763,27 +10857,39 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9791,10 +10897,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -9806,13 +10912,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9863,38 +10969,50 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -9906,16 +11024,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -9953,74 +11071,86 @@
         <v>20</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -10069,27 +11199,39 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10097,10 +11239,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -10112,19 +11254,17 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -10149,13 +11289,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -10173,27 +11313,39 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10201,10 +11353,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
@@ -10216,19 +11368,17 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -10277,27 +11427,39 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10305,10 +11467,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>20</v>
@@ -10320,17 +11482,17 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -10379,27 +11541,39 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>403</v>
+        <v>100</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10407,10 +11581,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -10422,19 +11596,17 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>361</v>
+        <v>461</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -10483,27 +11655,39 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10511,10 +11695,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -10526,19 +11710,17 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -10587,19 +11769,31 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>207</v>
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
